--- a/pomocniczy plik pomiarów.xlsx
+++ b/pomocniczy plik pomiarów.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF7BF70-D475-45E1-9EF2-CB17A535C9F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D63F6-9FA2-4522-8210-F7A35ECAE226}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,7 +759,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,8 +778,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -802,11 +808,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="2"/>
+      </left>
+      <right style="medium">
+        <color theme="2"/>
+      </right>
+      <top style="medium">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -815,6 +836,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4460,7 +4484,7 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6027,7 +6051,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="4"/>
       <c r="E60" s="3" t="s">
         <v>234</v>
       </c>
@@ -6039,7 +6063,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
       <c r="E61" s="1">
         <v>10</v>
       </c>
@@ -6051,7 +6075,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
+      <c r="A62" s="4"/>
       <c r="E62" s="3">
         <v>20</v>
       </c>
@@ -6063,7 +6087,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
       <c r="E63" s="1">
         <v>30</v>
       </c>
@@ -6075,7 +6099,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
+      <c r="A64" s="4"/>
       <c r="E64" s="3">
         <v>40</v>
       </c>
@@ -6087,7 +6111,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
       <c r="E65" s="1">
         <v>50</v>
       </c>
@@ -6099,7 +6123,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
+      <c r="A66" s="4"/>
       <c r="E66" s="3">
         <v>55</v>
       </c>
@@ -6111,7 +6135,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
       <c r="E67" s="1">
         <v>60</v>
       </c>
@@ -6123,7 +6147,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
+      <c r="A68" s="4"/>
       <c r="E68" s="3">
         <v>65</v>
       </c>
@@ -6135,7 +6159,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
+      <c r="A69" s="4"/>
       <c r="E69" s="1">
         <v>70</v>
       </c>
@@ -6147,7 +6171,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
+      <c r="A70" s="4"/>
       <c r="E70" s="3">
         <v>75</v>
       </c>
@@ -6159,7 +6183,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
+      <c r="A71" s="4"/>
       <c r="E71" s="1">
         <v>80</v>
       </c>
@@ -6171,7 +6195,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
+      <c r="A72" s="4"/>
       <c r="E72" s="3">
         <v>85</v>
       </c>
@@ -6183,7 +6207,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
+      <c r="A73" s="4"/>
       <c r="E73" s="1">
         <v>90</v>
       </c>
@@ -6195,7 +6219,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="4"/>
       <c r="E74" s="3">
         <v>95</v>
       </c>
